--- a/EVALAUCION_PARCIAL_IAN_MENA.xlsx
+++ b/EVALAUCION_PARCIAL_IAN_MENA.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Desktop\7mo\ING SOFT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diogo\Documents\GitHub\PROYECTO-IS-II\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91ED6A87-ADE6-411B-8758-EF39C7A81975}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="21570" windowHeight="7455"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,33 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="60">
-  <si>
-    <t>1. Un posible comprador de vehículo podrá acceder a la página Web del distribuidor para conocer el precio y comprar un auto del inventario.</t>
-  </si>
-  <si>
-    <t>2. La aplicación Web utilizará la información que ya se mantiene dentro del Sistema de Inventario de Vehículos (SIV). Este sistema mantiene los vehículos y los posibles accesorios de cada uno de ellos.</t>
-  </si>
-  <si>
-    <t>3. Un comprador potencial, podrá buscar un vehículo de dos formas: podrá ver todo el inventario, o filtrar con base a una serie de características de los vehículos (Año/modelo, marca/modelo, Accesorios, Rango de Precios)</t>
-  </si>
-  <si>
-    <t>4. Con base a los parámetros de consulta, será mostrado un listado con los vehículos disponibles en el inventario. Si no hay vehículos, el mensaje: “No hay vehículos con esas características”, se desplegará.</t>
-  </si>
-  <si>
-    <t>5. El comprador podrá entonces verificar el listado, y si ve un vehículo que le llame la atención, podrá seleccionarlo y hacer una consulta detallada.</t>
-  </si>
-  <si>
-    <t>6. Si el posible comprador, decide comprar el vehículo, entonces presionará el botón “Comprar”, y el estado del auto pasará a “Vendido” en el inventario de vehículos, se guardará la compra previa en el sistema.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="61">
   <si>
     <t>media</t>
   </si>
   <si>
     <t>Características generales del sistema</t>
-  </si>
-  <si>
-    <t>Nivel de influencia</t>
   </si>
   <si>
     <t>1- Comunicación de datos</t>
@@ -178,9 +158,6 @@
     <t>ARCHIVO LOGICO</t>
   </si>
   <si>
-    <t>Columna1</t>
-  </si>
-  <si>
     <t>REQUERIMIENTOS</t>
   </si>
   <si>
@@ -230,13 +207,40 @@
   </si>
   <si>
     <t xml:space="preserve">pfa </t>
+  </si>
+  <si>
+    <t>1. Encuesta a usuario, Formulario virtual que permitirá a los Hospitales privados recoger información de salud sobre sus pacientes</t>
+  </si>
+  <si>
+    <t>2. Autentificación de usuario, es necesario su número de cédula para poder ingresar a la aplicación a visualizar la información.</t>
+  </si>
+  <si>
+    <t>3. Consejos de la aplicación, el usuario podrá visualizar consejos que ayuden a mitigar el contagio, dependiendo si se encuentra en una zona de riesgo.</t>
+  </si>
+  <si>
+    <t>4. Zonas de riesgo, dependiendo de la cantidad de personas contagiadas, la aplicación mostrará un semáforo para alertar de zonas más riesgosas.</t>
+  </si>
+  <si>
+    <t>5. Acceder a la ubicación del dispositivo del usuario, conocida la ubicación del usuario, la aplicación mostrará la semaforización de las zonas de riesgo.</t>
+  </si>
+  <si>
+    <t>6. Usar un web service para conectar las bases de datos de los hospitales con la aplicación, la aplicación se conectará a dichas bases para obtener los datos específicos de casos positivos de COVID 19 para realizar la semaforización y enviará los datos obtenidos de la encuesta al paciente.</t>
+  </si>
+  <si>
+    <t>7. Validador de cédula, el número de cédula ingresado debe ser un número real y se utilizará un algoritmo dígito validador de cédulas.</t>
+  </si>
+  <si>
+    <t>baja</t>
+  </si>
+  <si>
+    <t>alta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,24 +271,9 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Trebuchet MS"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <i/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Trebuchet MS"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
       <name val="Trebuchet MS"/>
       <family val="2"/>
     </font>
@@ -364,7 +353,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -375,16 +364,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -415,20 +395,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla4" displayName="Tabla4" ref="A1:K8" totalsRowShown="0">
-  <autoFilter ref="A1:K8"/>
-  <tableColumns count="11">
-    <tableColumn id="1" name="REQUERIMIENTOS" dataDxfId="0"/>
-    <tableColumn id="2" name="Columna1"/>
-    <tableColumn id="3" name="COMPLEJIDAD"/>
-    <tableColumn id="4" name="EQ"/>
-    <tableColumn id="5" name="EI"/>
-    <tableColumn id="6" name="EI2"/>
-    <tableColumn id="7" name="EO"/>
-    <tableColumn id="8" name="EI3"/>
-    <tableColumn id="9" name="EO4"/>
-    <tableColumn id="10" name="ILF"/>
-    <tableColumn id="11" name="EIF"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla4" displayName="Tabla4" ref="A1:J9" totalsRowShown="0">
+  <autoFilter ref="A1:J9" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="REQUERIMIENTOS" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="COMPLEJIDAD"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="EQ"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="EI"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="EI2"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EO"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="EI3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="EO4"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="ILF"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="EIF"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -696,89 +675,91 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="79.28515625" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="56.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="F1" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="H1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="I1" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="J1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
         <v>27</v>
       </c>
-      <c r="K1" t="s">
+      <c r="D2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" t="s">
         <v>34</v>
       </c>
-      <c r="E2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -790,39 +771,39 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
         <v>1</v>
       </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -833,575 +814,703 @@
       <c r="J4">
         <v>1</v>
       </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6">
         <v>3</v>
       </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
       <c r="D6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
         <v>4</v>
       </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9">
         <v>1</v>
       </c>
-      <c r="K7">
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12" t="s">
+        <v>22</v>
+      </c>
+      <c r="O12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="e">
+        <f>SUMIF(B3:B9,"baja",(D3:E9,G3:G9))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13" t="e">
+        <f>D13*E13</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13">
+        <f>SUM(I3:J9,L3:L9)</f>
+        <v>27</v>
+      </c>
+      <c r="J13">
+        <v>4</v>
+      </c>
+      <c r="K13">
+        <f>I13*J13</f>
+        <v>108</v>
+      </c>
+      <c r="M13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N13">
+        <f>SUM(N3:O9,Q3:Q9)</f>
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>6</v>
+      </c>
+      <c r="P13">
+        <f>N13*O13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14">
+        <f>SUM(F3:F9,H3:H9)</f>
+        <v>34</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <f>D14*E14</f>
+        <v>136</v>
+      </c>
+      <c r="H14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14">
+        <f>SUM(K3:K9,M3:M9)</f>
+        <v>0</v>
+      </c>
+      <c r="J14">
         <v>5</v>
       </c>
-      <c r="C8" t="s">
+      <c r="K14">
+        <f>I14*J14</f>
+        <v>0</v>
+      </c>
+      <c r="M14" t="s">
+        <v>18</v>
+      </c>
+      <c r="N14">
+        <f>SUM(P3:P9,R3:R9)</f>
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>7</v>
+      </c>
+      <c r="P14">
+        <f>N14*O14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15">
+        <f>SUM(C3:C9)</f>
+        <v>17</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <f>D15*E15</f>
+        <v>51</v>
+      </c>
+      <c r="H15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15">
+        <f>SUM(H3:H9)</f>
+        <v>20</v>
+      </c>
+      <c r="J15">
+        <v>4</v>
+      </c>
+      <c r="K15">
+        <f>I15*J15</f>
+        <v>80</v>
+      </c>
+      <c r="M15" t="s">
+        <v>19</v>
+      </c>
+      <c r="N15">
+        <f>SUM(M3:M9)</f>
+        <v>0</v>
+      </c>
+      <c r="O15">
         <v>6</v>
       </c>
-      <c r="D8">
+      <c r="P15">
+        <f>N15*O15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16">
+        <f>SUM(I3:I9)</f>
+        <v>9</v>
+      </c>
+      <c r="E16">
+        <v>7</v>
+      </c>
+      <c r="F16">
+        <f>D16*E16</f>
+        <v>63</v>
+      </c>
+      <c r="H16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16">
+        <f>SUM(N3:N9)</f>
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>10</v>
+      </c>
+      <c r="K16">
+        <f>I16*J16</f>
+        <v>0</v>
+      </c>
+      <c r="M16" t="s">
+        <v>20</v>
+      </c>
+      <c r="N16">
+        <f>SUM(S3:S9)</f>
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>15</v>
+      </c>
+      <c r="P16">
+        <f>N16*O16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17">
+        <f>SUM(J3:J9)</f>
+        <v>18</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17">
+        <f>D17*E17</f>
+        <v>90</v>
+      </c>
+      <c r="H17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17">
+        <f>SUM(O3:O9)</f>
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>7</v>
+      </c>
+      <c r="K17">
+        <f>I17*J17</f>
+        <v>0</v>
+      </c>
+      <c r="M17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N17">
+        <f>SUM(T3:T9)</f>
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>10</v>
+      </c>
+      <c r="P17">
+        <f>N17*O17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" t="e">
+        <f>SUM(F13:F17)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J18" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18">
+        <f>SUM(K13:K17)</f>
+        <v>188</v>
+      </c>
+      <c r="O18" t="s">
+        <v>26</v>
+      </c>
+      <c r="P18">
+        <f>SUM(P13:P17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11">
-        <f>SUM(E3:F8,H3:H8)</f>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F11">
-        <v>4</v>
-      </c>
-      <c r="G11">
-        <f>E11*F11</f>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" t="e">
+        <f>F18*(0.65+(0.01*#REF!))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E33">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C37" s="7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12">
-        <f>SUM(G3:G8,I3:I8)</f>
-        <v>12</v>
-      </c>
-      <c r="F12">
-        <v>5</v>
-      </c>
-      <c r="G12">
-        <f t="shared" ref="G12:G15" si="0">E12*F12</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13">
-        <f>SUM(D3:D8)</f>
-        <v>6</v>
-      </c>
-      <c r="F13">
-        <v>4</v>
-      </c>
-      <c r="G13">
+      <c r="D37" s="7"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="6" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D39" s="6" t="e">
+        <f>C39</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E39" s="6" t="e">
+        <f>C39</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="6">
+        <v>8</v>
+      </c>
+      <c r="D40" s="6">
+        <v>9</v>
+      </c>
+      <c r="E40" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="6" t="e">
+        <f>C39/C40</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D41" s="6" t="e">
+        <f>D39/D40</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E41" s="6" t="e">
+        <f>E39/E40</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="6" t="e">
+        <f>C41/5</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D42" s="6" t="e">
+        <f>D41/5</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E42" s="6" t="e">
+        <f>E41/5</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="6" t="e">
+        <f>C42/20</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D43" s="6" t="e">
+        <f>D42/20</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E43" s="6" t="e">
+        <f>E42/20</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" s="6" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D45" s="6" t="e">
+        <f>C45</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E45" s="6" t="e">
+        <f>C45</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" s="6" t="e">
+        <f t="shared" ref="C46:E46" si="0">750*C43</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D46" s="6" t="e">
+        <f>750*D43</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E46" s="6" t="e">
         <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14">
-        <f>SUM(J3:J8)</f>
-        <v>5</v>
-      </c>
-      <c r="F14">
-        <v>10</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15">
-        <f>SUM(K3:K8)</f>
-        <v>4</v>
-      </c>
-      <c r="F15">
-        <v>7</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F16" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16">
-        <f>SUM(G11:G15)</f>
-        <v>210</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B28" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B31" s="4">
-        <v>4</v>
-      </c>
-      <c r="D31" t="s">
-        <v>59</v>
-      </c>
-      <c r="E31">
-        <f>G16*(0.65+(0.01*B34))</f>
-        <v>237.29999999999998</v>
-      </c>
-      <c r="F31">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B32" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B34" s="6">
-        <f>SUM(B20:B33)</f>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D35" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E35" s="10"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>58</v>
-      </c>
-      <c r="B36" s="7">
-        <v>8</v>
-      </c>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>48</v>
-      </c>
-      <c r="B37">
-        <f>F31*B36</f>
-        <v>1904</v>
-      </c>
-      <c r="D37" s="9">
-        <f>B37</f>
-        <v>1904</v>
-      </c>
-      <c r="E37" s="9">
-        <f>D37</f>
-        <v>1904</v>
-      </c>
-      <c r="F37" s="9">
-        <f>D37</f>
-        <v>1904</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
         <v>49</v>
       </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="D38" s="9">
-        <v>8</v>
-      </c>
-      <c r="E38" s="9">
-        <v>9</v>
-      </c>
-      <c r="F38" s="9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>50</v>
-      </c>
-      <c r="B39">
-        <f>B37/B38</f>
-        <v>1904</v>
-      </c>
-      <c r="D39" s="9">
-        <f>D37/D38</f>
-        <v>238</v>
-      </c>
-      <c r="E39" s="9">
-        <f>E37/E38</f>
-        <v>211.55555555555554</v>
-      </c>
-      <c r="F39" s="9">
-        <f>F37/F38</f>
-        <v>190.4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>53</v>
-      </c>
-      <c r="B40">
-        <f>B39/5</f>
-        <v>380.8</v>
-      </c>
-      <c r="D40" s="9">
-        <f>D39/5</f>
-        <v>47.6</v>
-      </c>
-      <c r="E40" s="9">
-        <f>E39/5</f>
-        <v>42.31111111111111</v>
-      </c>
-      <c r="F40" s="9">
-        <f>F39/5</f>
-        <v>38.08</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>54</v>
-      </c>
-      <c r="B41">
-        <f>B40/20</f>
-        <v>19.04</v>
-      </c>
-      <c r="D41" s="9">
-        <f>D40/20</f>
-        <v>2.38</v>
-      </c>
-      <c r="E41" s="9">
-        <f>E40/20</f>
-        <v>2.1155555555555554</v>
-      </c>
-      <c r="F41" s="9">
-        <f>F40/20</f>
-        <v>1.9039999999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>51</v>
-      </c>
-      <c r="B43">
-        <v>800</v>
-      </c>
-      <c r="D43" s="9">
-        <f>B43</f>
-        <v>800</v>
-      </c>
-      <c r="E43" s="9">
-        <f>D43</f>
-        <v>800</v>
-      </c>
-      <c r="F43" s="9">
-        <f>D43</f>
-        <v>800</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>52</v>
-      </c>
-      <c r="B44">
-        <f>750*B41</f>
-        <v>14280</v>
-      </c>
-      <c r="D44" s="9">
-        <f t="shared" ref="D44:F44" si="1">750*D41</f>
-        <v>1785</v>
-      </c>
-      <c r="E44" s="9">
-        <f>750*E41</f>
-        <v>1586.6666666666665</v>
-      </c>
-      <c r="F44" s="9">
-        <f t="shared" si="1"/>
-        <v>1428</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B46" s="8">
-        <f>(B38*B41*B43)+B44</f>
-        <v>29512</v>
-      </c>
-      <c r="C46" t="s">
-        <v>57</v>
-      </c>
-      <c r="D46" s="9">
-        <f>(D38*D41*D43)+D44</f>
-        <v>17017</v>
-      </c>
-      <c r="E46" s="9">
-        <f>(E38*E41*E43)+E44</f>
-        <v>16818.666666666668</v>
-      </c>
-      <c r="F46" s="9">
-        <f>(F38*F41*F43)+F44</f>
-        <v>16660</v>
+      <c r="C48" s="6" t="e">
+        <f>(C40*C43*C45)+C46</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D48" s="6" t="e">
+        <f>(D40*D43*D45)+D46</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E48" s="6" t="e">
+        <f>(E40*E43*E45)+E46</f>
+        <v>#REF!</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="C37:D37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/EVALAUCION_PARCIAL_IAN_MENA.xlsx
+++ b/EVALAUCION_PARCIAL_IAN_MENA.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diogo\Documents\GitHub\PROYECTO-IS-II\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\GitHub\PROYECTO-IS-II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91ED6A87-ADE6-411B-8758-EF39C7A81975}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21300" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -197,9 +196,6 @@
     <t>Costo = (Desarrolladores * Duración del proyecto en meses * sueldos )+ otros</t>
   </si>
   <si>
-    <t xml:space="preserve">RANGO 2 MESES </t>
-  </si>
-  <si>
     <t xml:space="preserve">TOTAL </t>
   </si>
   <si>
@@ -234,23 +230,19 @@
   </si>
   <si>
     <t>alta</t>
+  </si>
+  <si>
+    <t>-&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -284,6 +276,22 @@
       <name val="Trebuchet MS"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -291,11 +299,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -309,28 +312,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -348,34 +341,84 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFB4C6E7"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFB4C6E7"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFB4C6E7"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF8EAADB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFB4C6E7"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFB4C6E7"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFB4C6E7"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Entrada" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Salida" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -395,19 +438,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla4" displayName="Tabla4" ref="A1:J9" totalsRowShown="0">
-  <autoFilter ref="A1:J9" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla4" displayName="Tabla4" ref="A1:J9" totalsRowShown="0">
+  <autoFilter ref="A1:J9"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="REQUERIMIENTOS" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="COMPLEJIDAD"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="EQ"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="EI"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="EI2"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EO"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="EI3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="EO4"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="ILF"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="EIF"/>
+    <tableColumn id="1" name="REQUERIMIENTOS" dataDxfId="0"/>
+    <tableColumn id="3" name="COMPLEJIDAD"/>
+    <tableColumn id="4" name="EQ"/>
+    <tableColumn id="5" name="EI"/>
+    <tableColumn id="6" name="EI2"/>
+    <tableColumn id="7" name="EO"/>
+    <tableColumn id="8" name="EI3"/>
+    <tableColumn id="9" name="EO4"/>
+    <tableColumn id="10" name="ILF"/>
+    <tableColumn id="11" name="EIF"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -675,11 +718,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -687,7 +730,7 @@
     <col min="1" max="1" width="56.140625" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
     <col min="8" max="8" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.42578125" bestFit="1" customWidth="1"/>
@@ -753,10 +796,10 @@
     </row>
     <row r="3" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -785,10 +828,10 @@
     </row>
     <row r="4" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -817,10 +860,10 @@
     </row>
     <row r="5" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -849,7 +892,7 @@
     </row>
     <row r="6" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
@@ -881,10 +924,10 @@
     </row>
     <row r="7" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -913,7 +956,7 @@
     </row>
     <row r="8" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
@@ -945,10 +988,10 @@
     </row>
     <row r="9" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" t="s">
         <v>58</v>
-      </c>
-      <c r="B9" t="s">
-        <v>59</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1020,44 +1063,44 @@
       <c r="C13" t="s">
         <v>17</v>
       </c>
-      <c r="D13" t="e">
-        <f>SUMIF(B3:B9,"baja",(D3:E9,G3:G9))</f>
-        <v>#VALUE!</v>
+      <c r="D13">
+        <f>SUM(D3:E5,G3:G5,D9:E9,G9)</f>
+        <v>6</v>
       </c>
       <c r="E13">
         <v>3</v>
       </c>
-      <c r="F13" t="e">
+      <c r="F13">
         <f>D13*E13</f>
-        <v>#VALUE!</v>
+        <v>18</v>
       </c>
       <c r="H13" t="s">
         <v>17</v>
       </c>
       <c r="I13">
-        <f>SUM(I3:J9,L3:L9)</f>
-        <v>27</v>
+        <f>SUM(D6:E6,G6,D8:E8,G8)</f>
+        <v>10</v>
       </c>
       <c r="J13">
         <v>4</v>
       </c>
       <c r="K13">
         <f>I13*J13</f>
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="M13" t="s">
         <v>17</v>
       </c>
       <c r="N13">
-        <f>SUM(N3:O9,Q3:Q9)</f>
-        <v>0</v>
+        <f>SUM(D7:E7,G7)</f>
+        <v>4</v>
       </c>
       <c r="O13">
         <v>6</v>
       </c>
       <c r="P13">
         <f>N13*O13</f>
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -1065,43 +1108,43 @@
         <v>18</v>
       </c>
       <c r="D14">
-        <f>SUM(F3:F9,H3:H9)</f>
-        <v>34</v>
+        <f>SUM(F3:F5,H3:H5,F9,H9)</f>
+        <v>11</v>
       </c>
       <c r="E14">
         <v>4</v>
       </c>
       <c r="F14">
         <f>D14*E14</f>
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="H14" t="s">
         <v>18</v>
       </c>
       <c r="I14">
-        <f>SUM(K3:K9,M3:M9)</f>
-        <v>0</v>
+        <f>SUM(F6,H6,F8,H8)</f>
+        <v>17</v>
       </c>
       <c r="J14">
         <v>5</v>
       </c>
       <c r="K14">
         <f>I14*J14</f>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="M14" t="s">
         <v>18</v>
       </c>
       <c r="N14">
-        <f>SUM(P3:P9,R3:R9)</f>
-        <v>0</v>
+        <f>SUM(F7,H7)</f>
+        <v>6</v>
       </c>
       <c r="O14">
         <v>7</v>
       </c>
       <c r="P14">
         <f>N14*O14</f>
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -1109,43 +1152,43 @@
         <v>19</v>
       </c>
       <c r="D15">
-        <f>SUM(C3:C9)</f>
-        <v>17</v>
+        <f>SUM(C3:C5,C9)</f>
+        <v>6</v>
       </c>
       <c r="E15">
         <v>3</v>
       </c>
       <c r="F15">
         <f>D15*E15</f>
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="H15" t="s">
         <v>19</v>
       </c>
       <c r="I15">
-        <f>SUM(H3:H9)</f>
-        <v>20</v>
+        <f>SUM(C6,C8)</f>
+        <v>8</v>
       </c>
       <c r="J15">
         <v>4</v>
       </c>
       <c r="K15">
         <f>I15*J15</f>
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="M15" t="s">
         <v>19</v>
       </c>
       <c r="N15">
-        <f>SUM(M3:M9)</f>
-        <v>0</v>
+        <f>SUM(C7)</f>
+        <v>3</v>
       </c>
       <c r="O15">
         <v>6</v>
       </c>
       <c r="P15">
         <f>N15*O15</f>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -1153,43 +1196,43 @@
         <v>20</v>
       </c>
       <c r="D16">
-        <f>SUM(I3:I9)</f>
-        <v>9</v>
+        <f>SUM(I3:I5,I9)</f>
+        <v>5</v>
       </c>
       <c r="E16">
         <v>7</v>
       </c>
       <c r="F16">
         <f>D16*E16</f>
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="H16" t="s">
         <v>20</v>
       </c>
       <c r="I16">
-        <f>SUM(N3:N9)</f>
-        <v>0</v>
+        <f>SUM(I6,I8)</f>
+        <v>3</v>
       </c>
       <c r="J16">
         <v>10</v>
       </c>
       <c r="K16">
         <f>I16*J16</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M16" t="s">
         <v>20</v>
       </c>
       <c r="N16">
-        <f>SUM(S3:S9)</f>
-        <v>0</v>
+        <f>SUM(I7)</f>
+        <v>1</v>
       </c>
       <c r="O16">
         <v>15</v>
       </c>
       <c r="P16">
         <f>N16*O16</f>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
@@ -1197,323 +1240,281 @@
         <v>21</v>
       </c>
       <c r="D17">
-        <f>SUM(J3:J9)</f>
-        <v>18</v>
+        <f>SUM(J3:J5,J9)</f>
+        <v>8</v>
       </c>
       <c r="E17">
         <v>5</v>
       </c>
       <c r="F17">
         <f>D17*E17</f>
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="H17" t="s">
         <v>21</v>
       </c>
       <c r="I17">
-        <f>SUM(O3:O9)</f>
-        <v>0</v>
+        <f>SUM(J6,J8)</f>
+        <v>7</v>
       </c>
       <c r="J17">
         <v>7</v>
       </c>
       <c r="K17">
         <f>I17*J17</f>
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="M17" t="s">
         <v>21</v>
       </c>
       <c r="N17">
-        <f>SUM(T3:T9)</f>
-        <v>0</v>
+        <f>SUM(J7)</f>
+        <v>3</v>
       </c>
       <c r="O17">
         <v>10</v>
       </c>
       <c r="P17">
         <f>N17*O17</f>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
         <v>26</v>
       </c>
-      <c r="F18" t="e">
+      <c r="F18">
         <f>SUM(F13:F17)</f>
-        <v>#VALUE!</v>
+        <v>155</v>
       </c>
       <c r="J18" t="s">
         <v>26</v>
       </c>
       <c r="K18">
         <f>SUM(K13:K17)</f>
-        <v>188</v>
+        <v>236</v>
       </c>
       <c r="O18" t="s">
         <v>26</v>
       </c>
       <c r="P18">
         <f>SUM(P13:P17)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B21" s="6"/>
+    </row>
+    <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B22" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B23" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B24" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B25" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B26" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B27" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B28" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B29" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B30" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B31" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="B33" s="8">
+        <v>1</v>
+      </c>
       <c r="C33" t="s">
-        <v>51</v>
-      </c>
-      <c r="D33" t="e">
-        <f>F18*(0.65+(0.01*#REF!))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E33">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="D33">
+        <f>(F18+K18+P18)*(0.65+(0.01*B36))</f>
+        <v>582.40000000000009</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C37" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D37" s="7"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="8">
+        <f>SUM(B22:B35)</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>50</v>
-      </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="B38" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="6" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D39" s="6" t="e">
-        <f>C39</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E39" s="6" t="e">
-        <f>C39</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <f>B38*F33</f>
+        <v>4656</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="6">
-        <v>8</v>
-      </c>
-      <c r="D40" s="6">
-        <v>9</v>
-      </c>
-      <c r="E40" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="6" t="e">
-        <f>C39/C40</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D41" s="6" t="e">
-        <f>D39/D40</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E41" s="6" t="e">
-        <f>E39/E40</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <f>B39/B40</f>
+        <v>2328</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>45</v>
       </c>
-      <c r="C42" s="6" t="e">
-        <f>C41/5</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D42" s="6" t="e">
-        <f>D41/5</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E42" s="6" t="e">
-        <f>E41/5</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <f>B41/5</f>
+        <v>465.6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>46</v>
       </c>
-      <c r="C43" s="6" t="e">
-        <f>C42/20</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D43" s="6" t="e">
-        <f>D42/20</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E43" s="6" t="e">
-        <f>E42/20</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <f>B42/20</f>
+        <v>23.28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="6" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D45" s="6" t="e">
-        <f>C45</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E45" s="6" t="e">
-        <f>C45</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="6" t="e">
-        <f t="shared" ref="C46:E46" si="0">750*C43</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D46" s="6" t="e">
-        <f>750*D43</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E46" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>49</v>
-      </c>
-      <c r="C48" s="6" t="e">
-        <f>(C40*C43*C45)+C46</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D48" s="6" t="e">
-        <f>(D40*D43*D45)+D46</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E48" s="6" t="e">
-        <f>(E40*E43*E45)+E46</f>
-        <v>#REF!</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C37:D37"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
